--- a/results/I3_N5_M2_T45_C100_DepCentral_s3_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1176.256084437724</v>
+        <v>1078.966084436787</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4530000686645508</v>
+        <v>0.3180000782012939</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>989.5900000009374</v>
+        <v>986</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.7</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>39.93048325774537</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.33301651610683</v>
+        <v>30.33301651610684</v>
       </c>
     </row>
     <row r="8">
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>152.3990000000563</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="4">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01900000002203</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>146.5600000000265</v>
+        <v>183.6</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>63.38400000000281</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="7">
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>105.328000000026</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>152.3990000000679</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>146.5600000000265</v>
+        <v>183.6</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>52.39900000006722</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>46.56000000002652</v>
+        <v>83.59999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3">
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>6.176</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
